--- a/prep_and_checklists/Social Science Research Council  /PREPLIST_Social Science Research Council  _11-25-2025_0.xlsx
+++ b/prep_and_checklists/Social Science Research Council  /PREPLIST_Social Science Research Council  _11-25-2025_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Social Science Research Council  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC17E794-EAC5-D143-865C-6AF16B9B3762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE70F4F1-86DE-6B4E-89F4-5DB023F2F795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="131">
   <si>
     <t xml:space="preserve">Social Science Research Council  , Guests: 20   , 6:30 PM - 9:30 PM   ,Friday, December 5, 2025  </t>
   </si>
@@ -41,27 +41,18 @@
     <t>Hamachi Crudo</t>
   </si>
   <si>
-    <t>Ribeye Loin</t>
-  </si>
-  <si>
     <t>Broccolini</t>
   </si>
   <si>
     <t>Grilled Mushrooms</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>boil  / smash / fry fingerlings</t>
   </si>
   <si>
     <t>black onion powder</t>
   </si>
   <si>
-    <t>clean / blanch / grill broccolini</t>
-  </si>
-  <si>
     <t>make / pull lemon vinaigrette</t>
   </si>
   <si>
@@ -71,12 +62,6 @@
     <t>chopped parsley</t>
   </si>
   <si>
-    <t>boil / dehydrate / fry   Amaranth</t>
-  </si>
-  <si>
-    <t>clean ribeye loin</t>
-  </si>
-  <si>
     <t>make chili garlic oil</t>
   </si>
   <si>
@@ -86,33 +71,12 @@
     <t>grill wild mushroom mix</t>
   </si>
   <si>
-    <t>clean / portion / slice Hamachi</t>
-  </si>
-  <si>
-    <t>slice garlic</t>
-  </si>
-  <si>
-    <t>lemon zest</t>
-  </si>
-  <si>
-    <t>mandarin agrumato</t>
-  </si>
-  <si>
-    <t>fennel pollen</t>
+    <t>finely cut chives</t>
   </si>
   <si>
     <t>trim / blanch broccolini</t>
   </si>
   <si>
-    <t>sliced shallot rings</t>
-  </si>
-  <si>
-    <t>pull / make garlic miso rub</t>
-  </si>
-  <si>
-    <t>yuzu-mandarin vinaigrette</t>
-  </si>
-  <si>
     <t>Roasted Fingerling Potatoes</t>
   </si>
   <si>
@@ -326,9 +290,6 @@
     <t>sabayon</t>
   </si>
   <si>
-    <t>Assorted Bread</t>
-  </si>
-  <si>
     <t>assorted bread rolls</t>
   </si>
   <si>
@@ -336,13 +297,130 @@
   </si>
   <si>
     <t>6:30 PM - 9:30 PM</t>
+  </si>
+  <si>
+    <t>2 quarts, see AM Prep</t>
+  </si>
+  <si>
+    <t>1 x piping bag</t>
+  </si>
+  <si>
+    <t>1pint, in a pipingbag</t>
+  </si>
+  <si>
+    <t>1 cup</t>
+  </si>
+  <si>
+    <t>minced shallots</t>
+  </si>
+  <si>
+    <t>tartare vin</t>
+  </si>
+  <si>
+    <t>1 pint, see AM Prep</t>
+  </si>
+  <si>
+    <t>1 pint</t>
+  </si>
+  <si>
+    <t>cook / dehydrate / fry amaranth</t>
+  </si>
+  <si>
+    <t>cure /slice hamachi loin</t>
+  </si>
+  <si>
+    <t>2 x side</t>
+  </si>
+  <si>
+    <t>mandarin-yuzu vinaigrette</t>
+  </si>
+  <si>
+    <t>1 quart</t>
+  </si>
+  <si>
+    <t>sliced shallots</t>
+  </si>
+  <si>
+    <t>Bread &amp; Olives</t>
+  </si>
+  <si>
+    <t>mixed olives</t>
+  </si>
+  <si>
+    <t>2 DZ, 4 types</t>
+  </si>
+  <si>
+    <t>20 each</t>
+  </si>
+  <si>
+    <t>2 quarts</t>
+  </si>
+  <si>
+    <t>mandarine agrumato</t>
+  </si>
+  <si>
+    <t>1 x bottle</t>
+  </si>
+  <si>
+    <t>6 to-go containers, see AM prep</t>
+  </si>
+  <si>
+    <t>Beef Ribeye Loin</t>
+  </si>
+  <si>
+    <t>clean / tie ribeye loin</t>
+  </si>
+  <si>
+    <t>1 x loin</t>
+  </si>
+  <si>
+    <t>chimichuri base</t>
+  </si>
+  <si>
+    <t>chimichurri herns</t>
+  </si>
+  <si>
+    <t>1 cup each chopped parsley and cilantro</t>
+  </si>
+  <si>
+    <t>2 pints</t>
+  </si>
+  <si>
+    <t>6 lemons</t>
+  </si>
+  <si>
+    <t>3 cups, see AM Prep</t>
+  </si>
+  <si>
+    <t>2 pints, see AM Prep</t>
+  </si>
+  <si>
+    <t>12 fillets</t>
+  </si>
+  <si>
+    <t>puffed buckwheat</t>
+  </si>
+  <si>
+    <t>15 lbs</t>
+  </si>
+  <si>
+    <t>2 cases, see AM Prep</t>
+  </si>
+  <si>
+    <t>1 quart, see AM Prep</t>
+  </si>
+  <si>
+    <t>1/2 case</t>
+  </si>
+  <si>
+    <t>10 lbs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +475,17 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -412,7 +501,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -448,11 +537,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -474,6 +576,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,16 +894,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" customWidth="1"/>
     <col min="4" max="4" width="33.1640625" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
     <col min="7" max="7" width="44.33203125" customWidth="1"/>
@@ -804,180 +924,180 @@
     </row>
     <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B3" s="8"/>
       <c r="D3" s="9" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B4" s="8"/>
       <c r="D4" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
+      <c r="B6" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
+      <c r="B9" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
+      <c r="A10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
+      <c r="A11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
+      <c r="B16" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>9</v>
+      <c r="A17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>3</v>
@@ -985,206 +1105,218 @@
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>9</v>
+      <c r="A18" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="D20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="D21" s="3" t="s">
+      <c r="B22" s="13"/>
+      <c r="D22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="D29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="30" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>4</v>
+      <c r="D30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>9</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D17:E17"/>
@@ -1192,7 +1324,7 @@
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="58" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1206,7 +1338,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -1216,358 +1348,359 @@
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>